--- a/tabtoy/table/Type.xlsx
+++ b/tabtoy/table/Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\QuickStart\tabtoy\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B67A8AA-A359-4E8E-9E9A-80E20251B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447B719-7AC4-40DD-801A-9E7268AC6D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,30 +88,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界杯狂欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SJBCrazy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新春狂欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewYearCrazy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,43 +488,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
